--- a/src/Presentation/CTM.Win/DataTemplate/AccountingDelivery/ESSENCE_N.xlsx
+++ b/src/Presentation/CTM.Win/DataTemplate/AccountingDelivery/ESSENCE_N.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>发生日期</t>
   </si>
@@ -65,9 +65,6 @@
     <t>印花税</t>
   </si>
   <si>
-    <t>过户费</t>
-  </si>
-  <si>
     <t>清算费</t>
   </si>
   <si>
@@ -114,6 +111,19 @@
   </si>
   <si>
     <t>人民币</t>
+  </si>
+  <si>
+    <t>深市过户费(含在手续费中收取)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪市过户费</t>
+  </si>
+  <si>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>8500</t>
   </si>
 </sst>
 </file>
@@ -473,27 +483,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,43 +532,46 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="S1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" t="s">
         <v>28</v>
       </c>
-      <c r="T1" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>42654</v>
       </c>
@@ -581,43 +597,46 @@
         <v>10.73</v>
       </c>
       <c r="I2">
-        <v>35.75</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0.72</v>
       </c>
       <c r="K2">
+        <v>35.75</v>
+      </c>
+      <c r="L2">
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>35702.800000000003</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>112767.99</v>
       </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2">
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2">
         <v>3.25</v>
       </c>
-      <c r="P2">
-        <v>11000</v>
-      </c>
       <c r="Q2" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2">
         <v>880100000740</v>
       </c>
-      <c r="T2" t="s">
-        <v>30</v>
+      <c r="U2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>42654</v>
       </c>
@@ -643,40 +662,43 @@
         <v>14.34</v>
       </c>
       <c r="I3">
-        <v>47.77</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0.95</v>
       </c>
       <c r="K3">
+        <v>47.77</v>
+      </c>
+      <c r="L3">
         <v>0</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>47706.94</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>160474.93</v>
       </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3">
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3">
         <v>5.62</v>
       </c>
-      <c r="P3">
-        <v>8500</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3">
+        <v>24</v>
+      </c>
+      <c r="S3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3">
         <v>880100000740</v>
       </c>
-      <c r="T3" t="s">
-        <v>30</v>
+      <c r="U3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/Presentation/CTM.Win/DataTemplate/AccountingDelivery/ESSENCE_N.xlsx
+++ b/src/Presentation/CTM.Win/DataTemplate/AccountingDelivery/ESSENCE_N.xlsx
@@ -13,8 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="交割单--安信普通" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -486,7 +484,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="A1:XFD1048576"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -494,7 +492,7 @@
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="7.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
@@ -705,30 +703,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>